--- a/biology/Biologie cellulaire et moléculaire/Liste_d'équipements_de_laboratoire_de_biologie_moléculaire/Liste_d'équipements_de_laboratoire_de_biologie_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Liste_d'équipements_de_laboratoire_de_biologie_moléculaire/Liste_d'équipements_de_laboratoire_de_biologie_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les équipements de laboratoire de biologie moléculaire indispensables, nécessaires ou accessoires au travail d'une équipe de recherche en fonctionnement normal sont nombreux. Il est commun de s'en servir à l'intérieur d'une salle blanche.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Autoclave
 Centrifugeuse
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Instruments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Appareil de PCR en temps réel
 Lecteur de plaques
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cuve d'électrophorèse
 Minuterie (timer)
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Consommables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Azote liquide
 Gants médicaux
@@ -651,7 +671,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -669,11 +689,47 @@
           <t>Autres équipements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Whiteboard
-Matériel de terrain
-Glacière
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Whiteboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'équipements_de_laboratoire_de_biologie_moléculaire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27%C3%A9quipements_de_laboratoire_de_biologie_mol%C3%A9culaire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Autres équipements</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Matériel de terrain</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glacière
  Portail de la biologie cellulaire et moléculaire                     </t>
         </is>
       </c>
